--- a/Other/Bill of materials.xlsx
+++ b/Other/Bill of materials.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48F2902-F0F2-42DF-A7F6-FC492A9DDF06}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0DDF8B-DBD5-4790-9C0F-AC7E748A098F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>Lasercut MDF parts</t>
   </si>
   <si>
-    <t>On request, https://willemm.nl/contact</t>
-  </si>
-  <si>
     <t>Copper tube (15 mm diameter, 1 meter length)</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>Heat shrink (various diameters)</t>
+  </si>
+  <si>
+    <t>Design your own</t>
   </si>
 </sst>
 </file>
@@ -506,23 +506,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="60.7109375" customWidth="1"/>
+    <col min="2" max="3" width="60.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -544,7 +544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -555,7 +555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -566,7 +566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -577,7 +577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -588,7 +588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -599,7 +599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -610,7 +610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -621,7 +621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -632,7 +632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>40</v>
       </c>
@@ -654,40 +654,40 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -698,18 +698,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -720,7 +720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -731,7 +731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -758,7 +758,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
@@ -769,13 +769,13 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
@@ -791,7 +791,7 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
@@ -821,7 +821,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
         <v>26</v>
@@ -843,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
         <v>26</v>
@@ -876,10 +876,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
         <v>42</v>
-      </c>
-      <c r="C35" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
